--- a/此次切割剩余原料.xlsx
+++ b/此次切割剩余原料.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -402,10 +402,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>452</v>
+        <v>699</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>44</v>
@@ -416,13 +416,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>946</v>
+        <v>324</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>210</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -430,13 +430,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>340</v>
+        <v>1575</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>268</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -444,13 +444,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1494</v>
+        <v>327</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>398</v>
+        <v>482</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -458,13 +458,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>225</v>
+        <v>104</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>482</v>
+        <v>576</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -472,10 +472,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1708</v>
+        <v>2287</v>
       </c>
       <c r="C7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7">
         <v>746</v>
@@ -486,7 +486,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1596</v>
+        <v>1512</v>
       </c>
       <c r="C8">
         <v>29</v>
@@ -500,13 +500,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>118</v>
+        <v>1551</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>862</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -514,26 +514,12 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1630</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11">
         <v>9400</v>
       </c>
     </row>

--- a/此次切割剩余原料.xlsx
+++ b/此次切割剩余原料.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -402,10 +402,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>699</v>
+        <v>1001</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>44</v>
@@ -416,13 +416,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>324</v>
+        <v>1042</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>268</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -430,13 +430,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1575</v>
+        <v>363</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>398</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -444,13 +444,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>327</v>
+        <v>1611</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>482</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -458,13 +458,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>104</v>
+        <v>240</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>576</v>
+        <v>482</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -472,10 +472,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2287</v>
+        <v>1836</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7">
         <v>746</v>
@@ -486,7 +486,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1512</v>
+        <v>1731</v>
       </c>
       <c r="C8">
         <v>29</v>
@@ -500,13 +500,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1551</v>
+        <v>126</v>
       </c>
       <c r="C9">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>1064</v>
+        <v>862</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -514,12 +514,26 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <v>1775</v>
+      </c>
+      <c r="C10">
+        <v>29</v>
+      </c>
+      <c r="D10">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
         <v>2</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>3</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>9400</v>
       </c>
     </row>

--- a/此次切割剩余原料.xlsx
+++ b/此次切割剩余原料.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -402,7 +402,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1001</v>
+        <v>488</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -416,7 +416,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1042</v>
+        <v>887</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -430,10 +430,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>363</v>
+        <v>239</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>268</v>
@@ -444,7 +444,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1611</v>
+        <v>1562</v>
       </c>
       <c r="C5">
         <v>12</v>
@@ -458,10 +458,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>240</v>
+        <v>357</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <v>482</v>
@@ -472,13 +472,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1836</v>
+        <v>115</v>
       </c>
       <c r="C7">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>746</v>
+        <v>532</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -486,13 +486,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1731</v>
+        <v>1738</v>
       </c>
       <c r="C8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>840</v>
+        <v>746</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -500,13 +500,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>126</v>
+        <v>1759</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>862</v>
+        <v>840</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -514,13 +514,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1775</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>1064</v>
+        <v>862</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -528,12 +528,26 @@
         <v>9</v>
       </c>
       <c r="B11">
+        <v>1687</v>
+      </c>
+      <c r="C11">
+        <v>29</v>
+      </c>
+      <c r="D11">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
         <v>2</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>3</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>9400</v>
       </c>
     </row>

--- a/此次切割剩余原料.xlsx
+++ b/此次切割剩余原料.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -402,7 +402,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>488</v>
+        <v>779</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -416,7 +416,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>887</v>
+        <v>583</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -430,10 +430,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>239</v>
+        <v>324</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>268</v>
@@ -444,7 +444,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1562</v>
+        <v>1445</v>
       </c>
       <c r="C5">
         <v>12</v>
@@ -458,10 +458,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>357</v>
+        <v>214</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>482</v>
@@ -472,13 +472,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>115</v>
+        <v>1645</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>532</v>
+        <v>746</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -486,13 +486,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1738</v>
+        <v>1493</v>
       </c>
       <c r="C8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>746</v>
+        <v>840</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -500,13 +500,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1759</v>
+        <v>113</v>
       </c>
       <c r="C9">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>840</v>
+        <v>862</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -514,13 +514,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>1526</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>862</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -528,26 +528,12 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1687</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12">
         <v>9400</v>
       </c>
     </row>

--- a/此次切割剩余原料.xlsx
+++ b/此次切割剩余原料.xlsx
@@ -402,7 +402,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>779</v>
+        <v>997</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -416,7 +416,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>583</v>
+        <v>1360</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -430,7 +430,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -444,7 +444,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1445</v>
+        <v>1618</v>
       </c>
       <c r="C5">
         <v>12</v>
@@ -458,7 +458,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -472,7 +472,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1645</v>
+        <v>1916</v>
       </c>
       <c r="C7">
         <v>29</v>
@@ -486,7 +486,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1493</v>
+        <v>1675</v>
       </c>
       <c r="C8">
         <v>29</v>
@@ -500,7 +500,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -514,7 +514,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1526</v>
+        <v>1713</v>
       </c>
       <c r="C10">
         <v>29</v>

--- a/此次切割剩余原料.xlsx
+++ b/此次切割剩余原料.xlsx
@@ -402,7 +402,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>997</v>
+        <v>872</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -416,7 +416,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1360</v>
+        <v>1163</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -430,7 +430,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -444,7 +444,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1618</v>
+        <v>1529</v>
       </c>
       <c r="C5">
         <v>12</v>
@@ -458,7 +458,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -472,7 +472,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1916</v>
+        <v>1718</v>
       </c>
       <c r="C7">
         <v>29</v>
@@ -486,7 +486,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1675</v>
+        <v>1642</v>
       </c>
       <c r="C8">
         <v>29</v>
@@ -500,7 +500,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -514,7 +514,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1713</v>
+        <v>1680</v>
       </c>
       <c r="C10">
         <v>29</v>

--- a/此次切割剩余原料.xlsx
+++ b/此次切割剩余原料.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -402,7 +402,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>872</v>
+        <v>467</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -416,13 +416,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1163</v>
+        <v>345</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>210</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -430,13 +430,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>348</v>
+        <v>199</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>268</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -444,7 +444,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="C5">
         <v>12</v>
@@ -458,13 +458,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>482</v>
+        <v>582</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -472,13 +472,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1718</v>
+        <v>2542</v>
       </c>
       <c r="C7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>746</v>
+        <v>840</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -486,13 +486,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1642</v>
+        <v>1697</v>
       </c>
       <c r="C8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>840</v>
+        <v>846</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -500,13 +500,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>862</v>
+        <v>962</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -514,13 +514,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1680</v>
+        <v>1661</v>
       </c>
       <c r="C10">
         <v>29</v>
       </c>
       <c r="D10">
-        <v>1064</v>
+        <v>964</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -528,12 +528,26 @@
         <v>9</v>
       </c>
       <c r="B11">
+        <v>120</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
         <v>2</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>3</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>9400</v>
       </c>
     </row>

--- a/此次切割剩余原料.xlsx
+++ b/此次切割剩余原料.xlsx
@@ -402,7 +402,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -416,7 +416,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -430,7 +430,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>199</v>
+        <v>287</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -444,7 +444,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1526</v>
+        <v>1494</v>
       </c>
       <c r="C5">
         <v>12</v>
@@ -458,7 +458,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -472,7 +472,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2542</v>
+        <v>1691</v>
       </c>
       <c r="C7">
         <v>28</v>
@@ -486,7 +486,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="C8">
         <v>30</v>
@@ -500,7 +500,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -528,7 +528,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C11">
         <v>1</v>

--- a/此次切割剩余原料.xlsx
+++ b/此次切割剩余原料.xlsx
@@ -402,7 +402,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>444</v>
+        <v>958</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -416,7 +416,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -430,7 +430,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>287</v>
+        <v>753</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -444,7 +444,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1494</v>
+        <v>1547</v>
       </c>
       <c r="C5">
         <v>12</v>
@@ -458,7 +458,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -472,7 +472,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1691</v>
+        <v>1693</v>
       </c>
       <c r="C7">
         <v>28</v>
@@ -486,7 +486,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1698</v>
+        <v>1778</v>
       </c>
       <c r="C8">
         <v>30</v>
@@ -500,7 +500,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -514,7 +514,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1661</v>
+        <v>1729</v>
       </c>
       <c r="C10">
         <v>29</v>
@@ -528,7 +528,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C11">
         <v>1</v>

--- a/此次切割剩余原料.xlsx
+++ b/此次切割剩余原料.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -402,7 +402,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>958</v>
+        <v>465</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -416,13 +416,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>346</v>
+        <v>716</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>168</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -430,13 +430,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>753</v>
+        <v>348</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>304</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -444,7 +444,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1547</v>
+        <v>1530</v>
       </c>
       <c r="C5">
         <v>12</v>
@@ -458,13 +458,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>582</v>
+        <v>482</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -472,13 +472,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1693</v>
+        <v>2105</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>840</v>
+        <v>746</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -486,13 +486,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1778</v>
+        <v>1675</v>
       </c>
       <c r="C8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>846</v>
+        <v>840</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -500,13 +500,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>962</v>
+        <v>862</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -514,13 +514,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1729</v>
+        <v>1714</v>
       </c>
       <c r="C10">
         <v>29</v>
       </c>
       <c r="D10">
-        <v>964</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -528,26 +528,12 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>121</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12">
         <v>9400</v>
       </c>
     </row>

--- a/此次切割剩余原料.xlsx
+++ b/此次切割剩余原料.xlsx
@@ -1,54 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>编号</t>
-  </si>
-  <si>
-    <t>数量</t>
-  </si>
-  <si>
-    <t>长度</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -63,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -379,165 +420,177 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>编号</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>数量</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>长度</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="n">
+        <v>473</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="n">
+        <v>381</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>465</v>
-      </c>
-      <c r="C2">
+      <c r="B4" t="n">
+        <v>348</v>
+      </c>
+      <c r="C4" t="n">
         <v>3</v>
       </c>
-      <c r="D2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
+      <c r="D4" t="n">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1523</v>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>231</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1740</v>
+      </c>
+      <c r="C7" t="n">
+        <v>29</v>
+      </c>
+      <c r="D7" t="n">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1668</v>
+      </c>
+      <c r="C8" t="n">
+        <v>29</v>
+      </c>
+      <c r="D8" t="n">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>120</v>
+      </c>
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>716</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
+      <c r="D9" t="n">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1700</v>
+      </c>
+      <c r="C10" t="n">
+        <v>29</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>348</v>
-      </c>
-      <c r="C4">
+      <c r="C11" t="n">
         <v>3</v>
       </c>
-      <c r="D4">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>1530</v>
-      </c>
-      <c r="C5">
-        <v>12</v>
-      </c>
-      <c r="D5">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>231</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>2105</v>
-      </c>
-      <c r="C7">
-        <v>29</v>
-      </c>
-      <c r="D7">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>1675</v>
-      </c>
-      <c r="C8">
-        <v>29</v>
-      </c>
-      <c r="D8">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>121</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>1714</v>
-      </c>
-      <c r="C10">
-        <v>29</v>
-      </c>
-      <c r="D10">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>9400</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/此次切割剩余原料.xlsx
+++ b/此次切割剩余原料.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,10 +455,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>473</v>
+        <v>193</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>44</v>
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>381</v>
+        <v>288</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>210</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>348</v>
+        <v>1391</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>268</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1523</v>
+        <v>291</v>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>398</v>
+        <v>482</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>231</v>
+        <v>92</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>482</v>
+        <v>576</v>
       </c>
     </row>
     <row r="7">
@@ -525,10 +525,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1740</v>
+        <v>1425</v>
       </c>
       <c r="C7" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
         <v>746</v>
@@ -539,7 +539,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1668</v>
+        <v>1363</v>
       </c>
       <c r="C8" t="n">
         <v>29</v>
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>120</v>
+        <v>1392</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D9" t="n">
-        <v>862</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="10">
@@ -567,26 +567,12 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1700</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3</v>
-      </c>
-      <c r="D11" t="n">
         <v>9400</v>
       </c>
     </row>

--- a/此次切割剩余原料.xlsx
+++ b/此次切割剩余原料.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,10 +455,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>193</v>
+        <v>303</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>44</v>
@@ -469,7 +469,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
@@ -483,7 +483,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1391</v>
+        <v>1469</v>
       </c>
       <c r="C4" t="n">
         <v>13</v>
@@ -497,10 +497,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>291</v>
+        <v>203</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>482</v>
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>92</v>
+        <v>1616</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D6" t="n">
-        <v>576</v>
+        <v>746</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1425</v>
+        <v>1550</v>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" t="n">
-        <v>746</v>
+        <v>840</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1363</v>
+        <v>106</v>
       </c>
       <c r="C8" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>840</v>
+        <v>862</v>
       </c>
     </row>
     <row r="9">
@@ -553,10 +553,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1392</v>
+        <v>1305</v>
       </c>
       <c r="C9" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D9" t="n">
         <v>1064</v>
@@ -567,12 +567,26 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
+        <v>276</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
         <v>2</v>
       </c>
-      <c r="C10" t="n">
-        <v>3</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
         <v>9400</v>
       </c>
     </row>

--- a/此次切割剩余原料.xlsx
+++ b/此次切割剩余原料.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,13 +455,15 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>303</v>
+        <v>193</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>44</v>
+        <v>2</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.00</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -469,13 +471,15 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
-      <c r="D3" t="n">
-        <v>268</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>268.00</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -483,13 +487,15 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1469</v>
+        <v>1391</v>
       </c>
       <c r="C4" t="n">
         <v>13</v>
       </c>
-      <c r="D4" t="n">
-        <v>398</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>398.00</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -497,13 +503,15 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>203</v>
+        <v>291</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>482</v>
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>482.00</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -511,13 +519,15 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1616</v>
+        <v>92</v>
       </c>
       <c r="C6" t="n">
-        <v>32</v>
-      </c>
-      <c r="D6" t="n">
-        <v>746</v>
+        <v>1</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>576.00</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -525,13 +535,15 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1550</v>
+        <v>1425</v>
       </c>
       <c r="C7" t="n">
-        <v>31</v>
-      </c>
-      <c r="D7" t="n">
-        <v>840</v>
+        <v>30</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>746.00</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -539,13 +551,15 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>106</v>
+        <v>1363</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>862</v>
+        <v>29</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>840.00</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -553,13 +567,15 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1305</v>
+        <v>1392</v>
       </c>
       <c r="C9" t="n">
-        <v>23</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1064</v>
+        <v>29</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1064.00</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -567,27 +583,15 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>276</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>8</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1868</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>9400</v>
+        <v>3</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9400.00</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/此次切割剩余原料.xlsx
+++ b/此次切割剩余原料.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,14 +455,14 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>193</v>
+        <v>315</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>44.00</t>
+          <t>505.10</t>
         </is>
       </c>
     </row>
@@ -471,14 +471,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>288</v>
+        <v>67</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>268.00</t>
+          <t>555.70</t>
         </is>
       </c>
     </row>
@@ -487,14 +487,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1391</v>
+        <v>95</v>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>398.00</t>
+          <t>562.40</t>
         </is>
       </c>
     </row>
@@ -503,14 +503,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>291</v>
+        <v>22</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>482.00</t>
+          <t>571.20</t>
         </is>
       </c>
     </row>
@@ -519,14 +519,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>576.00</t>
+          <t>642.20</t>
         </is>
       </c>
     </row>
@@ -535,14 +535,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1425</v>
+        <v>392</v>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>746.00</t>
+          <t>677.50</t>
         </is>
       </c>
     </row>
@@ -551,14 +551,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1363</v>
+        <v>68</v>
       </c>
       <c r="C8" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>840.00</t>
+          <t>686.30</t>
         </is>
       </c>
     </row>
@@ -567,14 +567,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1392</v>
+        <v>125</v>
       </c>
       <c r="C9" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1064.00</t>
+          <t>698.00</t>
         </is>
       </c>
     </row>
@@ -583,14 +583,286 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
+        <v>44</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>701.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>568</v>
+      </c>
+      <c r="C11" t="n">
+        <v>16</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>729.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>103</v>
+      </c>
+      <c r="C12" t="n">
         <v>2</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>745.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>60</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>762.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>49</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>763.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>21</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>768.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>66</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>806.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>91</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>807.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>7</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5600.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="n">
+        <v>5</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6200.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
         <v>3</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>9400.00</t>
+      <c r="C20" t="n">
+        <v>10</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6400.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6800.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>5</v>
+      </c>
+      <c r="C22" t="n">
+        <v>18</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7000.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>6</v>
+      </c>
+      <c r="C23" t="n">
+        <v>14</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7200.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>7</v>
+      </c>
+      <c r="C24" t="n">
+        <v>26</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7600.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>8</v>
+      </c>
+      <c r="C25" t="n">
+        <v>35</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7800.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>9</v>
+      </c>
+      <c r="C26" t="n">
+        <v>36</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8000.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>10</v>
+      </c>
+      <c r="C27" t="n">
+        <v>42</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8200.00</t>
         </is>
       </c>
     </row>
